--- a/camp-backend/src/main/resources/templates/question_template.xlsx
+++ b/camp-backend/src/main/resources/templates/question_template.xlsx
@@ -18,17 +18,127 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>判断题可不填，默认A为对，B为错</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>输入A/B/C/D</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+·单选题/判断题只填"正确选项1"
+·判断题只输入A(对)/B(错)
+·多选题可填多个</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>题干</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确选项1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确选项2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确选项3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确选项4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>类型(单选/多选/判断)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,27 +151,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确选项1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确选项2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确选项3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确选项4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属培训</t>
+    <t>题干实例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +173,22 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,10 +498,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -409,41 +517,70 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -497,5 +634,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/camp-backend/src/main/resources/templates/question_template.xlsx
+++ b/camp-backend/src/main/resources/templates/question_template.xlsx
@@ -24,6 +24,31 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>通用题目(无固定培训)填0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -95,63 +120,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>正确选项2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确选项3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确选项4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(单选/多选/判断)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>正确选项1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正确选项2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确选项3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确选项4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属培训</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型(单选/多选/判断)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题干实例</t>
+    <t>题干示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +215,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,13 +242,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,31 +527,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -538,97 +568,49 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
